--- a/FrameworkPOM/data/Chola.xlsx
+++ b/FrameworkPOM/data/Chola.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
     <sheet name="TestDetails" sheetId="2" r:id="rId2"/>
     <sheet name="GridProperties" sheetId="3" r:id="rId3"/>
     <sheet name="MobileProperties" sheetId="4" r:id="rId4"/>
-    <sheet name="ObjectRepository" sheetId="5" r:id="rId5"/>
-    <sheet name="MobileRepository" sheetId="6" r:id="rId6"/>
+    <sheet name="WebObjectRepository" sheetId="5" r:id="rId5"/>
+    <sheet name="ObjectRepository" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -595,7 +595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -753,7 +753,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/FrameworkPOM/data/Chola.xlsx
+++ b/FrameworkPOM/data/Chola.xlsx
@@ -4,22 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
     <sheet name="TestDetails" sheetId="2" r:id="rId2"/>
     <sheet name="GridProperties" sheetId="3" r:id="rId3"/>
     <sheet name="MobileProperties" sheetId="4" r:id="rId4"/>
-    <sheet name="WebObjectRepository" sheetId="5" r:id="rId5"/>
-    <sheet name="ObjectRepository" sheetId="6" r:id="rId6"/>
+    <sheet name="ObjectRepository" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
   <si>
     <t>UserName</t>
   </si>
@@ -123,9 +122,6 @@
     <t>Login.Title</t>
   </si>
   <si>
-    <t>Login.Submit.Xpath</t>
-  </si>
-  <si>
     <t>Home.Title</t>
   </si>
   <si>
@@ -174,15 +170,6 @@
     <t>//*[@href='https://bctprodapps.bahwancybertek.com/']</t>
   </si>
   <si>
-    <t>textfield-1055-inputEl</t>
-  </si>
-  <si>
-    <t>textfield-1056-inputEl</t>
-  </si>
-  <si>
-    <t>//*[@id='button-1057-btnEl']</t>
-  </si>
-  <si>
     <t>http://192.168.5.142:8180/CueTrack/</t>
   </si>
   <si>
@@ -232,6 +219,12 @@
   </si>
   <si>
     <t>bct.peg.bpms.reliancepoc:id/btn_login</t>
+  </si>
+  <si>
+    <t>bct.peg.bpms.reliancepoc:id/toolbar</t>
+  </si>
+  <si>
+    <t>Home.Header.Id</t>
   </si>
   <si>
     <t>c</t>
@@ -253,10 +246,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -276,8 +271,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -288,12 +284,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -595,7 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -611,15 +608,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -648,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -656,7 +653,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -664,7 +661,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -688,7 +685,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -724,7 +721,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -783,7 +780,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -791,7 +788,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -799,7 +796,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -807,7 +804,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -815,7 +812,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -823,7 +820,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -831,7 +828,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -839,7 +836,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -847,7 +844,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -857,134 +854,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="52.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,31 +887,31 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>69</v>
+      <c r="A6" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1051,39 +924,39 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
@@ -1091,13 +964,24 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="B13" t="s">
-        <v>45</v>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A14" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FrameworkPOM/data/Chola.xlsx
+++ b/FrameworkPOM/data/Chola.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="GridProperties" sheetId="3" r:id="rId3"/>
     <sheet name="MobileProperties" sheetId="4" r:id="rId4"/>
     <sheet name="ObjectRepository" sheetId="6" r:id="rId5"/>
+    <sheet name="ListReference" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
   <si>
     <t>UserName</t>
   </si>
@@ -125,27 +126,15 @@
     <t>Home.Title</t>
   </si>
   <si>
-    <t>Home.Logout.Xpath</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Login.UserID.Id</t>
-  </si>
-  <si>
-    <t>Login.Password.Id</t>
-  </si>
-  <si>
     <t>//*[@name='Submit']</t>
   </si>
   <si>
     <t>BCT</t>
   </si>
   <si>
-    <t>Home.TimeSheet.Xpath</t>
-  </si>
-  <si>
     <t>#TimeSheeet Page Objects</t>
   </si>
   <si>
@@ -176,9 +165,6 @@
     <t>//*[@class='user_name']/p[2]</t>
   </si>
   <si>
-    <t>Home.UserName.Xpath</t>
-  </si>
-  <si>
     <t>android</t>
   </si>
   <si>
@@ -215,22 +201,88 @@
     <t>bct.peg.bpms.reliancepoc:id/input_pass</t>
   </si>
   <si>
-    <t>LoginSubmit.Id</t>
-  </si>
-  <si>
     <t>bct.peg.bpms.reliancepoc:id/btn_login</t>
   </si>
   <si>
     <t>bct.peg.bpms.reliancepoc:id/toolbar</t>
   </si>
   <si>
-    <t>Home.Header.Id</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
     <t>bctchn</t>
+  </si>
+  <si>
+    <t>Browsers</t>
+  </si>
+  <si>
+    <t>Locators</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Locator </t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>#Locator Type</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>ClassName</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>CssSelector</t>
+  </si>
+  <si>
+    <t>LinkText</t>
+  </si>
+  <si>
+    <t>MailReport</t>
+  </si>
+  <si>
+    <t>TagName</t>
+  </si>
+  <si>
+    <t>Send Mail</t>
+  </si>
+  <si>
+    <t>Nil</t>
+  </si>
+  <si>
+    <t>Don’t Send Mail</t>
+  </si>
+  <si>
+    <t>Home.Header</t>
+  </si>
+  <si>
+    <t>Home.Logout</t>
+  </si>
+  <si>
+    <t>Home.TimeSheet</t>
+  </si>
+  <si>
+    <t>Home.UserName</t>
+  </si>
+  <si>
+    <t>Login.Password</t>
+  </si>
+  <si>
+    <t>Login.Submit</t>
+  </si>
+  <si>
+    <t>Login.UserID</t>
   </si>
 </sst>
 </file>
@@ -262,7 +314,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -270,12 +322,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -288,6 +413,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -592,7 +722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -608,15 +738,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -653,7 +783,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -661,7 +791,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -685,7 +815,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +851,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -780,7 +910,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -788,7 +918,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -796,7 +926,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -804,7 +934,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -812,7 +942,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -820,7 +950,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -828,7 +958,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -836,7 +966,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -844,7 +974,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -854,134 +984,288 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
       <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
       <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
       <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
       <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>ListReference!$F$2:$F$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B14" t="s">
-        <v>67</v>
+      <c r="F4" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="F6" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="F7" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+      <c r="F8" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="10"/>
+      <c r="F9" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A14" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>